--- a/SPRING -2024/8W2/ADTA 5340 - Discovery and Learning with Big Data/Assignment/4/Data Collection Second Round-Pavan Kola.xlsx
+++ b/SPRING -2024/8W2/ADTA 5340 - Discovery and Learning with Big Data/Assignment/4/Data Collection Second Round-Pavan Kola.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Class\SPRING -2024\8W2\ADTA 5340 - Discovery and Learning with Big Data\Assignment\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C2BD8B-58CC-487E-BF49-BCC824130AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715FE907-CB8A-4429-94B3-97DD194BE86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="834" yWindow="-96" windowWidth="22302" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1242,6 +1253,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1268,9 +1282,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1564,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="69" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L57"/>
+    <sheetView tabSelected="1" topLeftCell="F50" zoomScale="69" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.47265625" defaultRowHeight="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1580,34 +1591,34 @@
     <col min="8" max="8" width="27.89453125" style="3" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="63.62890625" style="3" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="63.89453125" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="30.89453125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="36.3671875" style="24" customWidth="1"/>
-    <col min="13" max="13" width="49.47265625" style="24"/>
+    <col min="11" max="11" width="30.89453125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="36.3671875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="49.47265625" style="15"/>
     <col min="14" max="14" width="49.47265625" style="6"/>
     <col min="15" max="16384" width="49.47265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="15" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="52.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
@@ -1672,11 +1683,15 @@
       <c r="F3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>199</v>
+      <c r="K3" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M3" s="15" t="str">
+        <f>_xlfn.CONCAT("Use of technical language with ",K3," outcomes.")</f>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1698,13 +1713,13 @@
       <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="M4" s="24" t="s">
+      <c r="K4" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M4" s="15" t="s">
         <v>200</v>
       </c>
     </row>
@@ -1727,11 +1742,15 @@
       <c r="F5" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="K5" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>199</v>
+      <c r="K5" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M5" s="15" t="str">
+        <f>_xlfn.CONCAT("Use of technical language with ",K5," outcomes.")</f>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1753,11 +1772,15 @@
       <c r="F6" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="K6" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>199</v>
+      <c r="K6" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M6" s="15" t="str">
+        <f t="shared" ref="M6:M61" si="0">_xlfn.CONCAT("Use of technical language with ",K6," outcomes.")</f>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1779,11 +1802,15 @@
       <c r="F7" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="K7" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>199</v>
+      <c r="K7" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1805,11 +1832,15 @@
       <c r="F8" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>199</v>
+      <c r="K8" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1831,11 +1862,15 @@
       <c r="F9" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>199</v>
+      <c r="K9" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1857,11 +1892,15 @@
       <c r="F10" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="K10" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>199</v>
+      <c r="K10" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1883,11 +1922,15 @@
       <c r="F11" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>199</v>
+      <c r="K11" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1909,11 +1952,15 @@
       <c r="F12" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>199</v>
+      <c r="K12" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1935,11 +1982,15 @@
       <c r="F13" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>199</v>
+      <c r="K13" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1961,11 +2012,15 @@
       <c r="F14" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>199</v>
+      <c r="K14" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1987,11 +2042,15 @@
       <c r="F15" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>199</v>
+      <c r="K15" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2013,14 +2072,18 @@
       <c r="F16" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K16" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10">
         <v>11772279</v>
       </c>
@@ -2039,14 +2102,18 @@
       <c r="F17" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K17" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10">
         <v>11772279</v>
       </c>
@@ -2065,14 +2132,18 @@
       <c r="F18" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K18" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10">
         <v>11772279</v>
       </c>
@@ -2091,14 +2162,18 @@
       <c r="F19" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K19" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10">
         <v>11772279</v>
       </c>
@@ -2117,14 +2192,18 @@
       <c r="F20" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="K20" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K20" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10">
         <v>11772279</v>
       </c>
@@ -2143,14 +2222,18 @@
       <c r="F21" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="K21" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L21" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K21" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10">
         <v>11772279</v>
       </c>
@@ -2169,14 +2252,18 @@
       <c r="F22" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="K22" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K22" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M22" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10">
         <v>11772279</v>
       </c>
@@ -2195,14 +2282,18 @@
       <c r="F23" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="K23" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K23" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10">
         <v>11772279</v>
       </c>
@@ -2221,14 +2312,18 @@
       <c r="F24" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="K24" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K24" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10">
         <v>11772279</v>
       </c>
@@ -2247,14 +2342,18 @@
       <c r="F25" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="K25" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L25" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K25" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10">
         <v>11772279</v>
       </c>
@@ -2273,14 +2372,18 @@
       <c r="F26" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="K26" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K26" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M26" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10">
         <v>11772279</v>
       </c>
@@ -2299,14 +2402,18 @@
       <c r="F27" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K27" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K27" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M27" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10">
         <v>11772279</v>
       </c>
@@ -2325,14 +2432,18 @@
       <c r="F28" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="K28" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K28" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M28" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10">
         <v>11772279</v>
       </c>
@@ -2351,14 +2462,18 @@
       <c r="F29" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="K29" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L29" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K29" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M29" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10">
         <v>11772279</v>
       </c>
@@ -2377,14 +2492,18 @@
       <c r="F30" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="K30" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K30" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M30" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10">
         <v>11772279</v>
       </c>
@@ -2403,14 +2522,18 @@
       <c r="F31" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K31" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K31" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M31" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10">
         <v>11772279</v>
       </c>
@@ -2429,14 +2552,18 @@
       <c r="F32" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="K32" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K32" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M32" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10">
         <v>11772279</v>
       </c>
@@ -2455,14 +2582,18 @@
       <c r="F33" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="K33" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L33" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K33" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M33" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10">
         <v>11772279</v>
       </c>
@@ -2481,14 +2612,18 @@
       <c r="F34" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K34" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K34" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M34" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10">
         <v>11772279</v>
       </c>
@@ -2507,14 +2642,18 @@
       <c r="F35" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K35" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L35" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K35" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M35" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10">
         <v>11772279</v>
       </c>
@@ -2533,14 +2672,18 @@
       <c r="F36" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K36" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L36" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K36" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M36" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10">
         <v>11772279</v>
       </c>
@@ -2559,14 +2702,18 @@
       <c r="F37" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="K37" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L37" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K37" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M37" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10">
         <v>11772279</v>
       </c>
@@ -2585,14 +2732,18 @@
       <c r="F38" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K38" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L38" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K38" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M38" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10">
         <v>11772279</v>
       </c>
@@ -2611,14 +2762,18 @@
       <c r="F39" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K39" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L39" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K39" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M39" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10">
         <v>11772279</v>
       </c>
@@ -2637,14 +2792,18 @@
       <c r="F40" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="K40" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L40" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K40" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M40" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10">
         <v>11772279</v>
       </c>
@@ -2663,14 +2822,18 @@
       <c r="F41" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="K41" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L41" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K41" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M41" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10">
         <v>11772279</v>
       </c>
@@ -2689,14 +2852,18 @@
       <c r="F42" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="K42" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L42" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K42" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M42" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10">
         <v>11772279</v>
       </c>
@@ -2715,14 +2882,18 @@
       <c r="F43" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="K43" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L43" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K43" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M43" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10">
         <v>11772279</v>
       </c>
@@ -2741,14 +2912,18 @@
       <c r="F44" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K44" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L44" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K44" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M44" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10">
         <v>11772279</v>
       </c>
@@ -2767,14 +2942,18 @@
       <c r="F45" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="K45" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L45" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K45" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L45" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M45" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10">
         <v>11772279</v>
       </c>
@@ -2793,14 +2972,18 @@
       <c r="F46" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="K46" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L46" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K46" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L46" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M46" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10">
         <v>11772279</v>
       </c>
@@ -2819,14 +3002,18 @@
       <c r="F47" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="K47" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L47" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K47" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L47" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M47" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10">
         <v>11772279</v>
       </c>
@@ -2845,11 +3032,15 @@
       <c r="F48" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="K48" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L48" s="24" t="s">
-        <v>199</v>
+      <c r="K48" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M48" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2871,11 +3062,15 @@
       <c r="F49" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="K49" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L49" s="24" t="s">
-        <v>199</v>
+      <c r="K49" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M49" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2897,11 +3092,15 @@
       <c r="F50" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="K50" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L50" s="24" t="s">
-        <v>199</v>
+      <c r="K50" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L50" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M50" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2923,11 +3122,15 @@
       <c r="F51" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="K51" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L51" s="24" t="s">
-        <v>199</v>
+      <c r="K51" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L51" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M51" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2949,11 +3152,15 @@
       <c r="F52" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="K52" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L52" s="24" t="s">
-        <v>199</v>
+      <c r="K52" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M52" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2975,11 +3182,15 @@
       <c r="F53" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="K53" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L53" s="24" t="s">
-        <v>199</v>
+      <c r="K53" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M53" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3001,11 +3212,15 @@
       <c r="F54" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="K54" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L54" s="24" t="s">
-        <v>199</v>
+      <c r="K54" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M54" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3027,11 +3242,15 @@
       <c r="F55" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="K55" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L55" s="24" t="s">
-        <v>199</v>
+      <c r="K55" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M55" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3053,11 +3272,15 @@
       <c r="F56" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="K56" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L56" s="24" t="s">
-        <v>199</v>
+      <c r="K56" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M56" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3079,11 +3302,15 @@
       <c r="F57" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="K57" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L57" s="24" t="s">
-        <v>199</v>
+      <c r="K57" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M57" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NEUTRAL outcomes.</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3105,11 +3332,15 @@
       <c r="F58" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="K58" s="24" t="s">
+      <c r="K58" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="L58" s="24" t="s">
+      <c r="L58" s="15" t="s">
         <v>201</v>
+      </c>
+      <c r="M58" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NUTRAL outcomes.</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3131,11 +3362,15 @@
       <c r="F59" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="K59" s="24" t="s">
+      <c r="K59" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="L59" s="24" t="s">
-        <v>199</v>
+      <c r="L59" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M59" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NUTRAL outcomes.</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3157,11 +3392,15 @@
       <c r="F60" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="K60" s="24" t="s">
+      <c r="K60" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="L60" s="24" t="s">
-        <v>199</v>
+      <c r="L60" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M60" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NUTRAL outcomes.</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3183,11 +3422,15 @@
       <c r="F61" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="K61" s="24" t="s">
+      <c r="K61" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="L61" s="24" t="s">
-        <v>199</v>
+      <c r="L61" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M61" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Use of technical language with NUTRAL outcomes.</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="154.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3209,13 +3452,13 @@
       <c r="F62" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="K62" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L62" s="24" t="s">
+      <c r="K62" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L62" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="M62" s="24" t="s">
+      <c r="M62" s="15" t="s">
         <v>200</v>
       </c>
     </row>
